--- a/xlsx/社会福利_intext.xlsx
+++ b/xlsx/社会福利_intext.xlsx
@@ -15,123 +15,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>社会福利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E5%BA%86%E9%BE%84</t>
+  </si>
+  <si>
+    <t>宋庆龄</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_社会福利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%B1%E5%8B%A2%E7%BE%A4%E9%AB%94</t>
+  </si>
+  <si>
+    <t>弱势群体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>世界人权宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E8%A8%98</t>
+  </si>
+  <si>
+    <t>礼记</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B2%BB%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>免费教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%9A%9C</t>
+  </si>
+  <si>
+    <t>社会保障</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91</t>
+  </si>
+  <si>
+    <t>公民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E6%9D%83%E5%88%A9</t>
+  </si>
+  <si>
+    <t>个人权利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>福利国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>社会自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
+  </si>
+  <si>
+    <t>无条件基本收入</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC</t>
+  </si>
+  <si>
+    <t>报酬</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E5%B7%A5%E7%A6%8F%E5%88%A9</t>
+  </si>
+  <si>
+    <t>员工福利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%9C%80%E4%BD%8E%E7%94%9F%E6%B4%BB%E4%BF%9D%E9%9A%9C%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>日本最低生活保障制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%9C%80%E4%BD%8E%E7%94%9F%E6%B4%BB%E4%BF%9D%E9%9A%9C%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>中国最低生活保障制度</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A6%8F%E5%88%A9</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E5%BA%86%E9%BE%84</t>
-  </si>
-  <si>
-    <t>宋庆龄</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_社会福利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%B1%E5%8B%A2%E7%BE%A4%E9%AB%94</t>
-  </si>
-  <si>
-    <t>弱勢群體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>世界人權宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E8%A8%98</t>
-  </si>
-  <si>
-    <t>禮記</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B2%BB%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>免費教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82</t>
-  </si>
-  <si>
-    <t>醫療</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%9A%9C</t>
-  </si>
-  <si>
-    <t>社会保障</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91</t>
-  </si>
-  <si>
-    <t>公民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E6%9D%83%E5%88%A9</t>
-  </si>
-  <si>
-    <t>个人权利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>福利國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社會自由主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
-  </si>
-  <si>
-    <t>無條件基本收入</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC</t>
-  </si>
-  <si>
-    <t>報酬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E5%B7%A5%E7%A6%8F%E5%88%A9</t>
-  </si>
-  <si>
-    <t>員工福利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%9C%80%E4%BD%8E%E7%94%9F%E6%B4%BB%E4%BF%9D%E9%9A%9C%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>日本最低生活保障制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%9C%80%E4%BD%8E%E7%94%9F%E6%B4%BB%E4%BF%9D%E9%9A%9C%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>中國最低生活保障制度</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -480,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,6 +1045,64 @@
         <v>3</v>
       </c>
     </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
